--- a/biology/Biochimie/Vitexine/Vitexine.xlsx
+++ b/biology/Biochimie/Vitexine/Vitexine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La vitexine est un composé chimique de la famille des flavones. C'est plus précisément un hétéroside, le 8-C-glucoside d'une flavone, l'apigénine que l'on trouve dans la passiflore, le Vitex agnus-castus (gattilier) et dans les feuilles du bambou Phyllostachys nigra[2]. On la trouve aussi dans le millet perle (Pennisetum glaucum)[3] la salicaire commune[4] et le fruit du natsudaidai[5].
+La vitexine est un composé chimique de la famille des flavones. C'est plus précisément un hétéroside, le 8-C-glucoside d'une flavone, l'apigénine que l'on trouve dans la passiflore, le Vitex agnus-castus (gattilier) et dans les feuilles du bambou Phyllostachys nigra. On la trouve aussi dans le millet perle (Pennisetum glaucum) la salicaire commune et le fruit du natsudaidai.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Métabolisme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>La  vitexine inhibe la thyroperoxydase et peut entraîner un goitre[6],[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>La  vitexine inhibe la thyroperoxydase et peut entraîner un goitre,.
 La vitexine est métabolisée par :
 la vitexine bêta-glucosyltransférase
 la vitexine 2"-O-rhamnoside 7-O-méthyltransférase</t>
@@ -545,7 +559,9 @@
           <t>Isomère</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La vitexine possède un isomère qui ne diffère que par la position du groupe glucide, l'isovitexine.
 </t>
